--- a/NotasAnaDisSis.xlsx
+++ b/NotasAnaDisSis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ceicom\AnalisisDiseñoSistemas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ceicom\AnalisisDiseñoSistemas\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Esteban</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Practica 02</t>
+  </si>
+  <si>
+    <t>Cristian</t>
   </si>
 </sst>
 </file>
@@ -178,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -202,6 +208,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,7 +496,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +538,9 @@
       <c r="B3" s="9">
         <v>43261</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="13">
+        <v>43269</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -557,7 +568,9 @@
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -585,7 +598,9 @@
       <c r="B5" s="4">
         <v>80</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5">
+        <v>90</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -613,7 +628,9 @@
       <c r="B6" s="4">
         <v>68.2</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -639,9 +656,11 @@
         <v>2</v>
       </c>
       <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>54.54</v>
+      </c>
+      <c r="C7" s="5">
+        <v>85</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -669,7 +688,9 @@
       <c r="B8" s="4">
         <v>80</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5">
+        <v>70</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -697,7 +718,9 @@
       <c r="B9" s="4">
         <v>100</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -722,7 +745,9 @@
       <c r="B10" s="4">
         <v>80</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5">
+        <v>60</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -740,6 +765,33 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5">
+        <v>90</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+    </row>
     <row r="13" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E13" s="1" t="s">
         <v>10</v>
